--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H2">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I2">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J2">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>1.815614680893068</v>
+        <v>3.884107895221666</v>
       </c>
       <c r="R2">
-        <v>1.815614680893068</v>
+        <v>34.956971056995</v>
       </c>
       <c r="S2">
-        <v>0.0008602777133843503</v>
+        <v>0.001632672831650006</v>
       </c>
       <c r="T2">
-        <v>0.0008602777133843503</v>
+        <v>0.001632672831650007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H3">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I3">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J3">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>3.602188534352981</v>
+        <v>5.967169364057777</v>
       </c>
       <c r="R3">
-        <v>3.602188534352981</v>
+        <v>53.70452427652</v>
       </c>
       <c r="S3">
-        <v>0.001706795251285489</v>
+        <v>0.002508281326205377</v>
       </c>
       <c r="T3">
-        <v>0.001706795251285489</v>
+        <v>0.002508281326205378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H4">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I4">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J4">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1.691079847474806</v>
+        <v>2.981752811497778</v>
       </c>
       <c r="R4">
-        <v>1.691079847474806</v>
+        <v>26.83577530348</v>
       </c>
       <c r="S4">
-        <v>0.0008012704015041301</v>
+        <v>0.001253370641947786</v>
       </c>
       <c r="T4">
-        <v>0.0008012704015041301</v>
+        <v>0.001253370641947786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H5">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I5">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J5">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>1.898094810208436</v>
+        <v>3.129665963738889</v>
       </c>
       <c r="R5">
-        <v>1.898094810208436</v>
+        <v>28.16699367365</v>
       </c>
       <c r="S5">
-        <v>0.0008993585920497333</v>
+        <v>0.001315545481479114</v>
       </c>
       <c r="T5">
-        <v>0.0008993585920497333</v>
+        <v>0.001315545481479115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H6">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I6">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J6">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1.417402376726923</v>
+        <v>2.384013697563333</v>
       </c>
       <c r="R6">
-        <v>1.417402376726923</v>
+        <v>21.45612327807</v>
       </c>
       <c r="S6">
-        <v>0.0006715960651939647</v>
+        <v>0.001002112840140604</v>
       </c>
       <c r="T6">
-        <v>0.0006715960651939647</v>
+        <v>0.001002112840140604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H7">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I7">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J7">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>2.678789917384093</v>
+        <v>4.745989541402777</v>
       </c>
       <c r="R7">
-        <v>2.678789917384093</v>
+        <v>42.71390587262499</v>
       </c>
       <c r="S7">
-        <v>0.001269268908770167</v>
+        <v>0.00199496213611264</v>
       </c>
       <c r="T7">
-        <v>0.001269268908770167</v>
+        <v>0.00199496213611264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H8">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I8">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J8">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>6.494787177170396</v>
+        <v>9.196185946056335</v>
       </c>
       <c r="R8">
-        <v>6.494787177170396</v>
+        <v>82.76567351450701</v>
       </c>
       <c r="S8">
-        <v>0.003077371383087652</v>
+        <v>0.003865588535117384</v>
       </c>
       <c r="T8">
-        <v>0.003077371383087652</v>
+        <v>0.003865588535117385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H9">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I9">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J9">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>12.88568998084889</v>
+        <v>14.12813457396356</v>
       </c>
       <c r="R9">
-        <v>12.88568998084889</v>
+        <v>127.153211165672</v>
       </c>
       <c r="S9">
-        <v>0.006105520091218731</v>
+        <v>0.005938718002448544</v>
       </c>
       <c r="T9">
-        <v>0.006105520091218731</v>
+        <v>0.005938718002448546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H10">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I10">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J10">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>6.049303205429138</v>
+        <v>7.059730069147556</v>
       </c>
       <c r="R10">
-        <v>6.049303205429138</v>
+        <v>63.537570622328</v>
       </c>
       <c r="S10">
-        <v>0.002866291390954938</v>
+        <v>0.002967535865020565</v>
       </c>
       <c r="T10">
-        <v>0.002866291390954938</v>
+        <v>0.002967535865020565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H11">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I11">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J11">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>6.789833748387429</v>
+        <v>7.409935801987779</v>
       </c>
       <c r="R11">
-        <v>6.789833748387429</v>
+        <v>66.68942221789001</v>
       </c>
       <c r="S11">
-        <v>0.003217170863836304</v>
+        <v>0.003114743769878131</v>
       </c>
       <c r="T11">
-        <v>0.003217170863836304</v>
+        <v>0.003114743769878132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H12">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I12">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J12">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>5.070308627780389</v>
+        <v>5.644496458944667</v>
       </c>
       <c r="R12">
-        <v>5.070308627780389</v>
+        <v>50.800468130502</v>
       </c>
       <c r="S12">
-        <v>0.002402422473426095</v>
+        <v>0.002372646760972042</v>
       </c>
       <c r="T12">
-        <v>0.002402422473426095</v>
+        <v>0.002372646760972042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H13">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I13">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J13">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>9.582523532582202</v>
+        <v>11.23681511898056</v>
       </c>
       <c r="R13">
-        <v>9.582523532582202</v>
+        <v>101.131336070825</v>
       </c>
       <c r="S13">
-        <v>0.004540408006068032</v>
+        <v>0.004723360744330347</v>
       </c>
       <c r="T13">
-        <v>0.004540408006068032</v>
+        <v>0.004723360744330347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.89060579725714</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H14">
-        <v>3.89060579725714</v>
+        <v>0.000221</v>
       </c>
       <c r="I14">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="J14">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>284.1265970055801</v>
+        <v>0.006983589023666667</v>
       </c>
       <c r="R14">
-        <v>284.1265970055801</v>
+        <v>0.06285230121300001</v>
       </c>
       <c r="S14">
-        <v>0.1346253595302543</v>
+        <v>2.935530210264422E-06</v>
       </c>
       <c r="T14">
-        <v>0.1346253595302543</v>
+        <v>2.935530210264422E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.89060579725714</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H15">
-        <v>3.89060579725714</v>
+        <v>0.000221</v>
       </c>
       <c r="I15">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="J15">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>563.7085780419005</v>
+        <v>0.01072891371644444</v>
       </c>
       <c r="R15">
-        <v>563.7085780419005</v>
+        <v>0.096560223448</v>
       </c>
       <c r="S15">
-        <v>0.2670973811990182</v>
+        <v>4.509865948756364E-06</v>
       </c>
       <c r="T15">
-        <v>0.2670973811990182</v>
+        <v>4.509865948756364E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.89060579725714</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H16">
-        <v>3.89060579725714</v>
+        <v>0.000221</v>
       </c>
       <c r="I16">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="J16">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>264.6380685197985</v>
+        <v>0.005361163172444445</v>
       </c>
       <c r="R16">
-        <v>264.6380685197985</v>
+        <v>0.048250468552</v>
       </c>
       <c r="S16">
-        <v>0.1253912709874544</v>
+        <v>2.253548483671323E-06</v>
       </c>
       <c r="T16">
-        <v>0.1253912709874544</v>
+        <v>2.253548483671323E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.89060579725714</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H17">
-        <v>3.89060579725714</v>
+        <v>0.000221</v>
       </c>
       <c r="I17">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="J17">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>297.0339603958279</v>
+        <v>0.005627109612222223</v>
       </c>
       <c r="R17">
-        <v>297.0339603958279</v>
+        <v>0.05064398651000001</v>
       </c>
       <c r="S17">
-        <v>0.1407411489540991</v>
+        <v>2.36533825332046E-06</v>
       </c>
       <c r="T17">
-        <v>0.1407411489540991</v>
+        <v>2.36533825332046E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.89060579725714</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H18">
-        <v>3.89060579725714</v>
+        <v>0.000221</v>
       </c>
       <c r="I18">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="J18">
-        <v>0.9715822488592205</v>
+        <v>1.745299517483913E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>221.8101220072478</v>
+        <v>0.004286433935333333</v>
       </c>
       <c r="R18">
-        <v>221.8101220072478</v>
+        <v>0.038577905418</v>
       </c>
       <c r="S18">
-        <v>0.1050984587060283</v>
+        <v>1.801789347688025E-06</v>
       </c>
       <c r="T18">
-        <v>0.1050984587060283</v>
+        <v>1.801789347688025E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H19">
+        <v>0.000221</v>
+      </c>
+      <c r="I19">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J19">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>0.008533244019444443</v>
+      </c>
+      <c r="R19">
+        <v>0.07679919617499999</v>
+      </c>
+      <c r="S19">
+        <v>3.586922931138539E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.586922931138539E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.011261</v>
+      </c>
+      <c r="H20">
+        <v>0.033783</v>
+      </c>
+      <c r="I20">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J20">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.799851</v>
+      </c>
+      <c r="N20">
+        <v>284.399553</v>
+      </c>
+      <c r="O20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q20">
+        <v>1.067541122111</v>
+      </c>
+      <c r="R20">
+        <v>9.607870098999001</v>
+      </c>
+      <c r="S20">
+        <v>0.0004487376339066197</v>
+      </c>
+      <c r="T20">
+        <v>0.0004487376339066198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.011261</v>
+      </c>
+      <c r="H21">
+        <v>0.033783</v>
+      </c>
+      <c r="I21">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J21">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N21">
+        <v>436.924088</v>
+      </c>
+      <c r="O21">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P21">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q21">
+        <v>1.640067384989333</v>
+      </c>
+      <c r="R21">
+        <v>14.760606464904</v>
+      </c>
+      <c r="S21">
+        <v>0.0006893972911621548</v>
+      </c>
+      <c r="T21">
+        <v>0.0006893972911621549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.011261</v>
+      </c>
+      <c r="H22">
+        <v>0.033783</v>
+      </c>
+      <c r="I22">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J22">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N22">
+        <v>218.327912</v>
+      </c>
+      <c r="O22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q22">
+        <v>0.8195302056773334</v>
+      </c>
+      <c r="R22">
+        <v>7.375771851096</v>
+      </c>
+      <c r="S22">
+        <v>0.0003444870064428431</v>
+      </c>
+      <c r="T22">
+        <v>0.0003444870064428431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.011261</v>
+      </c>
+      <c r="H23">
+        <v>0.033783</v>
+      </c>
+      <c r="I23">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J23">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N23">
+        <v>229.15831</v>
+      </c>
+      <c r="O23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q23">
+        <v>0.8601839096366667</v>
+      </c>
+      <c r="R23">
+        <v>7.741655186730001</v>
+      </c>
+      <c r="S23">
+        <v>0.0003615756661173081</v>
+      </c>
+      <c r="T23">
+        <v>0.0003615756661173082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.011261</v>
+      </c>
+      <c r="H24">
+        <v>0.033783</v>
+      </c>
+      <c r="I24">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J24">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N24">
+        <v>174.560658</v>
+      </c>
+      <c r="O24">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P24">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q24">
+        <v>0.655242523246</v>
+      </c>
+      <c r="R24">
+        <v>5.897182709213999</v>
+      </c>
+      <c r="S24">
+        <v>0.0002754291834069889</v>
+      </c>
+      <c r="T24">
+        <v>0.0002754291834069889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.011261</v>
+      </c>
+      <c r="H25">
+        <v>0.033783</v>
+      </c>
+      <c r="I25">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J25">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>1.304427976058333</v>
+      </c>
+      <c r="R25">
+        <v>11.739851784525</v>
+      </c>
+      <c r="S25">
+        <v>0.0005483122958491098</v>
+      </c>
+      <c r="T25">
+        <v>0.0005483122958491098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.060403</v>
+      </c>
+      <c r="I26">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J26">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>1.908731799984333</v>
+      </c>
+      <c r="R26">
+        <v>17.178586199859</v>
+      </c>
+      <c r="S26">
+        <v>0.0008023295533511397</v>
+      </c>
+      <c r="T26">
+        <v>0.0008023295533511399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.060403</v>
+      </c>
+      <c r="I27">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J27">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>2.932391743051555</v>
+      </c>
+      <c r="R27">
+        <v>26.391525687464</v>
+      </c>
+      <c r="S27">
+        <v>0.001232621868338148</v>
+      </c>
+      <c r="T27">
+        <v>0.001232621868338148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.89060579725714</v>
-      </c>
-      <c r="H19">
-        <v>3.89060579725714</v>
-      </c>
-      <c r="I19">
-        <v>0.9715822488592205</v>
-      </c>
-      <c r="J19">
-        <v>0.9715822488592205</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q19">
-        <v>419.2053916114086</v>
-      </c>
-      <c r="R19">
-        <v>419.2053916114086</v>
-      </c>
-      <c r="S19">
-        <v>0.1986286294823661</v>
-      </c>
-      <c r="T19">
-        <v>0.1986286294823661</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.060403</v>
+      </c>
+      <c r="I28">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J28">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>1.465295652059555</v>
+      </c>
+      <c r="R28">
+        <v>13.187660868536</v>
+      </c>
+      <c r="S28">
+        <v>0.0006159325296796333</v>
+      </c>
+      <c r="T28">
+        <v>0.0006159325296796333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.060403</v>
+      </c>
+      <c r="I29">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J29">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>1.537983266547778</v>
+      </c>
+      <c r="R29">
+        <v>13.84184939893</v>
+      </c>
+      <c r="S29">
+        <v>0.0006464865453181708</v>
+      </c>
+      <c r="T29">
+        <v>0.0006464865453181709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.060403</v>
+      </c>
+      <c r="I30">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J30">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>1.171554158352667</v>
+      </c>
+      <c r="R30">
+        <v>10.543987425174</v>
+      </c>
+      <c r="S30">
+        <v>0.0004924591944271482</v>
+      </c>
+      <c r="T30">
+        <v>0.0004924591944271483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.060403</v>
+      </c>
+      <c r="I31">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J31">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>2.332278454780556</v>
+      </c>
+      <c r="R31">
+        <v>20.990506093025</v>
+      </c>
+      <c r="S31">
+        <v>0.0009803660896360235</v>
+      </c>
+      <c r="T31">
+        <v>0.0009803660896360235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.051414</v>
+      </c>
+      <c r="H32">
+        <v>12.154242</v>
+      </c>
+      <c r="I32">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J32">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>384.073443539314</v>
+      </c>
+      <c r="R32">
+        <v>3456.660991853826</v>
+      </c>
+      <c r="S32">
+        <v>0.1614440930944103</v>
+      </c>
+      <c r="T32">
+        <v>0.1614440930944103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.051414</v>
+      </c>
+      <c r="H33">
+        <v>12.154242</v>
+      </c>
+      <c r="I33">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J33">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>590.0534556868106</v>
+      </c>
+      <c r="R33">
+        <v>5310.481101181295</v>
+      </c>
+      <c r="S33">
+        <v>0.2480271589535947</v>
+      </c>
+      <c r="T33">
+        <v>0.2480271589535948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.051414</v>
+      </c>
+      <c r="H34">
+        <v>12.154242</v>
+      </c>
+      <c r="I34">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J34">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>294.8455864225227</v>
+      </c>
+      <c r="R34">
+        <v>2653.610277802704</v>
+      </c>
+      <c r="S34">
+        <v>0.1239374372365354</v>
+      </c>
+      <c r="T34">
+        <v>0.1239374372365354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.051414</v>
+      </c>
+      <c r="H35">
+        <v>12.154242</v>
+      </c>
+      <c r="I35">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J35">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>309.4717284501134</v>
+      </c>
+      <c r="R35">
+        <v>2785.24555605102</v>
+      </c>
+      <c r="S35">
+        <v>0.130085491143503</v>
+      </c>
+      <c r="T35">
+        <v>0.1300854911435031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.051414</v>
+      </c>
+      <c r="H36">
+        <v>12.154242</v>
+      </c>
+      <c r="I36">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J36">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>235.739164556804</v>
+      </c>
+      <c r="R36">
+        <v>2121.652481011236</v>
+      </c>
+      <c r="S36">
+        <v>0.09909223422996558</v>
+      </c>
+      <c r="T36">
+        <v>0.09909223422996558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.051414</v>
+      </c>
+      <c r="H37">
+        <v>12.154242</v>
+      </c>
+      <c r="I37">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J37">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>469.2991532008166</v>
+      </c>
+      <c r="R37">
+        <v>4223.692378807349</v>
+      </c>
+      <c r="S37">
+        <v>0.1972684585538785</v>
+      </c>
+      <c r="T37">
+        <v>0.1972684585538785</v>
       </c>
     </row>
   </sheetData>
